--- a/excels/datas/__tables__.xlsx
+++ b/excels/datas/__tables__.xlsx
@@ -137,13 +137,13 @@
     <t>Shop.xlsx</t>
   </si>
   <si>
-    <t>FootTable</t>
-  </si>
-  <si>
-    <t>FootCfg</t>
-  </si>
-  <si>
-    <t>Foots.xlsx</t>
+    <t>FoodTable</t>
+  </si>
+  <si>
+    <t>FoodCfg</t>
+  </si>
+  <si>
+    <t>Foods.xlsx</t>
   </si>
   <si>
     <t>EquipmentTable</t>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>

--- a/excels/datas/__tables__.xlsx
+++ b/excels/datas/__tables__.xlsx
@@ -110,13 +110,13 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>AnimalTable</t>
-  </si>
-  <si>
-    <t>AnimalCfg</t>
-  </si>
-  <si>
-    <t>Animals.xlsx</t>
+    <t>UnitTable</t>
+  </si>
+  <si>
+    <t>UnitCfg</t>
+  </si>
+  <si>
+    <t>Units.xlsx</t>
   </si>
   <si>
     <t>AbilityTable</t>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
